--- a/figures/int/selected.xlsx
+++ b/figures/int/selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,11 +452,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_0.5_to_1</t>
+          <t>{ankle, hip} (distance) - |temporal| std_min</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,15 +468,15 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>{left_elbow, left_shoulder, middle_shoulder} (angle) {diff} - |spectral| rel_pwr_4_to_6</t>
+          <t>{ankle, hip} (distance) {diff} - |spectral| rel_pwr_2_to_4_min</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -484,11 +484,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>{left_shoulder, right_shoulder} (y_displacement) - |temporal| root_mean_square</t>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_0.5_to_1_max</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -500,15 +500,15 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>{pinky, wrist} (distance) {diff} - |spectral| half_pwr_freq</t>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_4_to_6_max</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -516,15 +516,15 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{thumb, index} (distance) - |temporal| mad</t>
+          <t>{elbow, shoulder, hip} (angle) {diff} - |spectral| rel_pwr_4_to_6_min</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -532,15 +532,15 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>{thumb, index} (distance) {diff} - |spectral| rel_pwr_2_to_4</t>
+          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_0.5_to_1</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -548,17 +548,129 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>{wrist, shoulder} (distance) - |temporal| mad_max.1</t>
+          <t>{left_ankle, right_ankle} (x_displacement) - |spectral| rel_pwr_1_to_2</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{left_ankle, right_ankle} (x_displacement) {diff} - |spectral| rel_pwr_4_to_6</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>{nose, middle_shoulder, left_shoulder} (angle) - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>{pinky, wrist} (distance) {diff} - |spectral| half_pwr_freq</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>{pinky, wrist} (distance) {diff} - |spectral| rel_pwr_6_to_128</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>{thumb, index} (distance) - |temporal| mad</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>{thumb, index} (distance) {diff} - |spectral| rel_pwr_2_to_4</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>{thumb, index} (distance) {diff} - |spectral| rel_pwr_4_to_6</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
